--- a/advisors/excel/template2.xlsx
+++ b/advisors/excel/template2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Казахский агротехнический университет им.С.Сейфуллина    С.Сейфуллин атындағы Қазақ агротехникалық университеті</t>
   </si>
@@ -51,42 +51,24 @@
     <t>Обучающийся ________________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">Dariga Dariga </t>
-  </si>
-  <si>
     <t>Академическая степень ___________________</t>
   </si>
   <si>
-    <t>Бакалавр</t>
-  </si>
-  <si>
     <t>Специальность ______________________________________</t>
   </si>
   <si>
-    <t>Информационно-коммуникационные технологии (6B061)</t>
-  </si>
-  <si>
     <t>Форма обучения ____________________________</t>
   </si>
   <si>
-    <t>Очно, 3 года</t>
-  </si>
-  <si>
     <t>Курс ____</t>
   </si>
   <si>
     <t>Язык обучения ____________________</t>
   </si>
   <si>
-    <t>Полиязычный</t>
-  </si>
-  <si>
     <t>___________ учебный год</t>
   </si>
   <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -100,69 +82,6 @@
   </si>
   <si>
     <t>Количество кредитов</t>
-  </si>
-  <si>
-    <t>2 Курс обучения  2019-2020 учебный год</t>
-  </si>
-  <si>
-    <t>7 триместр</t>
-  </si>
-  <si>
-    <t>ОК</t>
-  </si>
-  <si>
-    <t>Иностранный язык</t>
-  </si>
-  <si>
-    <t>Общее количество кредитов: 6.0</t>
-  </si>
-  <si>
-    <t>6 триместр</t>
-  </si>
-  <si>
-    <t>Объектно-ориентированное программирование</t>
-  </si>
-  <si>
-    <t>Общее количество кредитов: 5.0</t>
-  </si>
-  <si>
-    <t>5 триместр</t>
-  </si>
-  <si>
-    <t>Математический анализ</t>
-  </si>
-  <si>
-    <t>Общее количество кредитов: 3.0</t>
-  </si>
-  <si>
-    <t>4 триместр</t>
-  </si>
-  <si>
-    <t>5885</t>
-  </si>
-  <si>
-    <t>КВ</t>
-  </si>
-  <si>
-    <t>5556</t>
-  </si>
-  <si>
-    <t>Современная история Казахстана</t>
-  </si>
-  <si>
-    <t>Общее количество кредитов: 8.9</t>
-  </si>
-  <si>
-    <t>Общее количество кредитов за курс: 22.9</t>
-  </si>
-  <si>
-    <t>Регистратор</t>
-  </si>
-  <si>
-    <t>Эдвайзер</t>
-  </si>
-  <si>
-    <t>Обучающийся:</t>
   </si>
 </sst>
 </file>
@@ -311,6 +230,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -335,8 +256,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -689,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +624,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -749,13 +668,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -763,9 +682,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -775,23 +692,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -801,13 +714,11 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -817,219 +728,135 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>1</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="17">
-        <v>6</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
+      <c r="D33"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>2</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="17">
-        <v>5</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
+      <c r="D36"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>3</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="17">
-        <v>3</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
+      <c r="D39"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>4</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="17">
-        <v>3.5</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>5</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="17">
-        <v>3</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>6</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="17">
-        <v>2.4</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
+      <c r="D45"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
+      <c r="A51"/>
     </row>
     <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/advisors/excel/template2.xlsx
+++ b/advisors/excel/template2.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -48,27 +48,6 @@
     <t xml:space="preserve">Индивидуальный учебный план </t>
   </si>
   <si>
-    <t>Обучающийся ________________________________</t>
-  </si>
-  <si>
-    <t>Академическая степень ___________________</t>
-  </si>
-  <si>
-    <t>Специальность ______________________________________</t>
-  </si>
-  <si>
-    <t>Форма обучения ____________________________</t>
-  </si>
-  <si>
-    <t>Курс ____</t>
-  </si>
-  <si>
-    <t>Язык обучения ____________________</t>
-  </si>
-  <si>
-    <t>___________ учебный год</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -82,13 +61,34 @@
   </si>
   <si>
     <t>Количество кредитов</t>
+  </si>
+  <si>
+    <t>учебный год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Язык обучения </t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма обучения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Специальность </t>
+  </si>
+  <si>
+    <t>Академическая степень</t>
+  </si>
+  <si>
+    <t>Обучающийся</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +107,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -152,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,47 +168,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,37 +189,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -606,31 +567,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E69"/>
+  <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="6" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="5" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -668,31 +629,33 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -700,191 +663,227 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="8"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="8"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="8"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+    </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125978" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/advisors/excel/template2.xlsx
+++ b/advisors/excel/template2.xlsx
@@ -63,9 +63,6 @@
     <t>Количество кредитов</t>
   </si>
   <si>
-    <t>учебный год</t>
-  </si>
-  <si>
     <t xml:space="preserve">Язык обучения </t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Обучающийся</t>
+  </si>
+  <si>
+    <t>Учебный год</t>
   </si>
 </sst>
 </file>
@@ -193,12 +193,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -206,17 +217,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,13 +585,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -629,17 +629,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -679,178 +679,178 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>

--- a/advisors/excel/template2.xlsx
+++ b/advisors/excel/template2.xlsx
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +99,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -186,37 +179,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,29 +560,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="75" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="5" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="4" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -614,7 +605,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -624,18 +615,18 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -667,7 +658,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -675,7 +666,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -694,163 +685,163 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
